--- a/SoftwareRequirementSpecification/UsecaseSpecification.xlsx
+++ b/SoftwareRequirementSpecification/UsecaseSpecification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlnzl\Documents\portfolio\2020-03-01-Project1\SoftwareRequirementSpecification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D5BE14-9415-41C5-9702-2F37B6052EAB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F6F545-078F-4981-BC9E-9645A47CB833}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9DBD2D4B-71F1-42CC-A4BC-92E1984F55CE}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{9DBD2D4B-71F1-42CC-A4BC-92E1984F55CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,51 +629,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -690,24 +708,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,7 +1026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A1C2A5-D19F-4CCD-8423-A83314DB4DA0}">
   <dimension ref="B2:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
       <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
@@ -1034,1470 +1034,1566 @@
   <sheetData>
     <row r="2" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="5"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="10"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="10"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="10"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="10"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="10"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="10"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="10"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="10"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="10"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="12"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="10"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="10"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="10"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="10"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
     </row>
     <row r="24" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
     </row>
     <row r="26" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
     </row>
     <row r="27" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="5"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="8"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="10"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="10"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="10"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="6"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="10"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="6"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="10"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="6"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="10"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="6"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="10"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="10"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="6"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="10"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="6"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="12"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="10"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="6"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="10"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="6"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="10"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="6"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="10"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="6"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="10"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="6"/>
     </row>
     <row r="46" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="15"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="9"/>
     </row>
     <row r="48" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="49" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="23"/>
+      <c r="C49" s="20"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="5"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15"/>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="8"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="16"/>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="8"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="16"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="10"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="6"/>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="10"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="6"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="10"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="6"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="10"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="6"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="10"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="6"/>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="10"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="6"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="10"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="6"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="10"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="6"/>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="10"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="6"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="12"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="3"/>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="10"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="6"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="10"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="6"/>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="10"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="6"/>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="10"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="6"/>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="10"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="6"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="10"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="6"/>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="10"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="6"/>
     </row>
     <row r="70" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="15"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="9"/>
     </row>
     <row r="72" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="73" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="25"/>
+      <c r="C73" s="18"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="5"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="15"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="8"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="16"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="8"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="16"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="10"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="6"/>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="10"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="6"/>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="10"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="6"/>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="10"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="6"/>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="10"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="6"/>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="10"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="6"/>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="10"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="6"/>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="12"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="3"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="10"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="6"/>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="10"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="6"/>
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="10"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="6"/>
     </row>
     <row r="88" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="15"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="9"/>
     </row>
     <row r="90" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="91" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B91" s="24" t="s">
+      <c r="B91" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C91" s="25"/>
+      <c r="C91" s="18"/>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="5"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="15"/>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="8"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="16"/>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="8"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="16"/>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="10"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="6"/>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="10"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="6"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="10"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="6"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="10"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="6"/>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="10"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="6"/>
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="10"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="6"/>
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="10"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="6"/>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="10"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="6"/>
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="10"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="6"/>
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="10"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="6"/>
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="10"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="6"/>
     </row>
     <row r="106" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="15"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+      <c r="J106" s="9"/>
     </row>
     <row r="108" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="109" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B109" s="26" t="s">
+      <c r="B109" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C109" s="27"/>
+      <c r="C109" s="11"/>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="5"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="15"/>
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="8"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="16"/>
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="8"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="16"/>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="10"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="6"/>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="10"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="6"/>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="10"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="6"/>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="10"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="6"/>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="10"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="6"/>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="10"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="6"/>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="10"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="6"/>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C120" s="2"/>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="10"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="6"/>
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="10"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="6"/>
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C122" s="2"/>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="10"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="6"/>
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="10"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="6"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B124" s="9"/>
-      <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="10"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="6"/>
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="10"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="6"/>
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="10"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="6"/>
     </row>
     <row r="127" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B127" s="13" t="s">
+      <c r="B127" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C127" s="14"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="15"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="B3:J4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B41:J41"/>
+    <mergeCell ref="B42:J42"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B64:J64"/>
+    <mergeCell ref="B65:J65"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="B61:J61"/>
+    <mergeCell ref="B63:J63"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="B54:J54"/>
+    <mergeCell ref="B55:J55"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="B57:J57"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:J74"/>
+    <mergeCell ref="B75:J75"/>
+    <mergeCell ref="B76:J76"/>
+    <mergeCell ref="B77:J77"/>
+    <mergeCell ref="B78:J78"/>
+    <mergeCell ref="B67:J67"/>
+    <mergeCell ref="B68:J68"/>
+    <mergeCell ref="B69:J69"/>
+    <mergeCell ref="B70:J70"/>
+    <mergeCell ref="B83:J83"/>
+    <mergeCell ref="B85:J85"/>
+    <mergeCell ref="B86:J86"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B88:J88"/>
+    <mergeCell ref="B79:J79"/>
+    <mergeCell ref="B80:J80"/>
+    <mergeCell ref="B81:J81"/>
+    <mergeCell ref="B82:J82"/>
+    <mergeCell ref="B97:J97"/>
+    <mergeCell ref="B98:J98"/>
+    <mergeCell ref="B99:J99"/>
+    <mergeCell ref="B100:J100"/>
+    <mergeCell ref="B101:J101"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:J92"/>
+    <mergeCell ref="B93:J93"/>
+    <mergeCell ref="B94:J94"/>
+    <mergeCell ref="B95:J95"/>
+    <mergeCell ref="B96:J96"/>
+    <mergeCell ref="B106:J106"/>
+    <mergeCell ref="B111:J111"/>
+    <mergeCell ref="B112:J112"/>
+    <mergeCell ref="B113:J113"/>
+    <mergeCell ref="B114:J114"/>
+    <mergeCell ref="B102:J102"/>
+    <mergeCell ref="B103:J103"/>
+    <mergeCell ref="B104:J104"/>
+    <mergeCell ref="B105:J105"/>
     <mergeCell ref="B124:J124"/>
     <mergeCell ref="B125:J125"/>
     <mergeCell ref="B126:J126"/>
@@ -2513,102 +2609,6 @@
     <mergeCell ref="B119:J119"/>
     <mergeCell ref="B123:J123"/>
     <mergeCell ref="B122:J122"/>
-    <mergeCell ref="B106:J106"/>
-    <mergeCell ref="B111:J111"/>
-    <mergeCell ref="B112:J112"/>
-    <mergeCell ref="B113:J113"/>
-    <mergeCell ref="B114:J114"/>
-    <mergeCell ref="B102:J102"/>
-    <mergeCell ref="B103:J103"/>
-    <mergeCell ref="B104:J104"/>
-    <mergeCell ref="B105:J105"/>
-    <mergeCell ref="B97:J97"/>
-    <mergeCell ref="B98:J98"/>
-    <mergeCell ref="B99:J99"/>
-    <mergeCell ref="B100:J100"/>
-    <mergeCell ref="B101:J101"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:J92"/>
-    <mergeCell ref="B93:J93"/>
-    <mergeCell ref="B94:J94"/>
-    <mergeCell ref="B95:J95"/>
-    <mergeCell ref="B96:J96"/>
-    <mergeCell ref="B83:J83"/>
-    <mergeCell ref="B85:J85"/>
-    <mergeCell ref="B86:J86"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B88:J88"/>
-    <mergeCell ref="B79:J79"/>
-    <mergeCell ref="B80:J80"/>
-    <mergeCell ref="B81:J81"/>
-    <mergeCell ref="B82:J82"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:J74"/>
-    <mergeCell ref="B75:J75"/>
-    <mergeCell ref="B76:J76"/>
-    <mergeCell ref="B77:J77"/>
-    <mergeCell ref="B78:J78"/>
-    <mergeCell ref="B67:J67"/>
-    <mergeCell ref="B68:J68"/>
-    <mergeCell ref="B69:J69"/>
-    <mergeCell ref="B70:J70"/>
-    <mergeCell ref="B64:J64"/>
-    <mergeCell ref="B65:J65"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="B60:J60"/>
-    <mergeCell ref="B61:J61"/>
-    <mergeCell ref="B63:J63"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="B53:J53"/>
-    <mergeCell ref="B54:J54"/>
-    <mergeCell ref="B55:J55"/>
-    <mergeCell ref="B56:J56"/>
-    <mergeCell ref="B57:J57"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B46:J46"/>
-    <mergeCell ref="B43:J43"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B41:J41"/>
-    <mergeCell ref="B42:J42"/>
-    <mergeCell ref="B44:J44"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="B3:J4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B10:J10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
